--- a/docs/PST1/PST1_08.08.24_output.xlsx
+++ b/docs/PST1/PST1_08.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K106"/>
+  <dimension ref="A1:N106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,1120 +505,1325 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1730742280.38207</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1730742283.0038848</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1730742280.38207.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1730742283.0038848.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>282.77</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>282.72</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.04999999999995453</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1730742283.0188475</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1730742285.1987255</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1730742283.0188475.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1730742285.1987255.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>282.72</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>283.3</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.5799999999999841</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1730742288.5173295</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1730742289.944141</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1730742288.5173295.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1730742289.944141.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>282.77</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>282.72</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.04999999999995453</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1730742289.9586883</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1730742292.0027497</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1730742289.9586883.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1730742292.0027497.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>282.72</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>283.3</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.5799999999999841</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1730742294.667698</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1730742295.810837</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1730742294.667698.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1730742295.810837.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>282.92</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>283.74</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.8199999999999932</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1730742297.9060206</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1730742299.0560992</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1730742297.9060206.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1730742299.0560992.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>284.61</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>284.7</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.08999999999997499</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1730742300.4376547</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1730742301.0488498</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1730742300.4376547.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1730742301.0488498.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>284.62</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>284.31</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-0.3100000000000023</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1730742302.902702</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1730742305.0340362</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1730742302.902702.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1730742305.0340362.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>283.39</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>283.64</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.25</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1730742305.0499945</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1730742306.6967857</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1730742305.0499945.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1730742306.6967857.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>283.64</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>283.76</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-0.1200000000000045</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1730742308.3748584</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1730742308.589326</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1730742308.3748584.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1730742308.589326.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>283.61</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>283.45</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.160000000000025</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1730742308.7748303</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1730742308.9880855</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/SBER1730742308.7748303.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/SBER1730742308.9880855.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>283.49</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>282.89</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.6000000000000227</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1730742309.5558784</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1730742310.986176</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730742309.5558784.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730742310.986176.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>130.16</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>130.32</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.1599999999999966</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1730742311.7721274</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1730742313.3912296</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730742311.7721274.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730742313.3912296.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>130.21</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>130.34</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.1299999999999955</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1730742313.9737787</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1730742314.0670686</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730742313.9737787.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730742314.0670686.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>130.53</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>130.7</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.1699999999999875</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1730742314.5284295</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1730742315.915583</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730742314.5284295.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730742315.915583.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>130.8</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>130.41</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-0.3900000000000148</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1730742316.8797371</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1730742318.5419712</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730742316.8797371.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730742318.5419712.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>130.21</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>129.66</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-0.5500000000000114</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.42</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1730742318.557901</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1730742318.903029</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730742318.557901.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730742318.903029.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>129.66</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>129.5</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.1599999999999966</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1730742319.6014714</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1730742320.0922592</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730742319.6014714.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730742320.0922592.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>129.44</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>129.5</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-0.06000000000000227</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1730742320.2688565</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1730742321.7499647</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730742320.2688565.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730742321.7499647.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>129.77</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>129.41</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.3600000000000136</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1730742323.5607233</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1730742323.9349706</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730742323.5607233.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730742323.9349706.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>129.67</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>129.54</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.1299999999999955</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1730742324.7299218</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1730742326.0401077</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730742324.7299218.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730742326.0401077.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>6485.5</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>6519.5</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>34</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1730742326.979071</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1730742328.5797627</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730742326.979071.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730742328.5797627.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>6519</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>6519</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1611,2401 +1831,2867 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1730742329.7817004</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1730742329.9966938</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730742329.7817004.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730742329.9966938.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>6542</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>6550.5</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>8.5</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1730742330.2131033</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1730742331.830722</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730742330.2131033.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730742331.830722.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>6535.5</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>6521</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-14.5</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1730742333.1032202</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1730742335.6785297</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730742333.1032202.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730742335.6785297.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>6506.5</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>6484.5</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-22</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.34</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1730742335.6935222</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1730742337.243284</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730742335.6935222.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730742337.243284.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>6484.5</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>6477.5</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>7</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1730742340.106289</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1730742343.2328484</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730742340.106289.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730742343.2328484.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>508.15</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>511.05</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-2.900000000000034</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.5700000000000001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1730742343.247781</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1730742343.6544626</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730742343.247781.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730742343.6544626.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>511.05</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>512.55</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>1.499999999999943</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1730742345.603264</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1730742346.9189458</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730742345.603264.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730742346.9189458.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>511.9</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>511.8</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-0.09999999999996589</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1730742347.9140234</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1730742347.9140234.png</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+          <t>./test_images/ROSN1730742347.9140234.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>509.85</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>510.2</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.3499999999999659</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.06999999999999999</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1730742355.440737</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1730742355.7947628</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730742355.440737.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730742355.7947628.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>228.15</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>228.49</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.3400000000000034</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1730742357.0734801</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1730742357.417963</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730742357.0734801.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730742357.417963.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>228.78</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>229.5</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.7199999999999989</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1730742357.7326696</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1730742358.8988967</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730742357.7326696.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730742358.8988967.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>228.87</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>229.84</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.9699999999999989</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1730742359.6215158</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1730742361.1898978</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730742359.6215158.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730742361.1898978.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>229.93</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>229.19</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-0.7400000000000091</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.32</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1730742362.592827</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1730742364.427496</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730742362.592827.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730742364.427496.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>228.38</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>228.37</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-0.009999999999990905</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1730742364.442428</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1730742368.4511886</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730742364.442428.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730742368.4511886.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>228.37</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>228.99</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-0.6200000000000045</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1730742369.09716</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1730742370.3438947</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730742369.09716.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730742370.3438947.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>1014.2</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>1017.2</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>3</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1730742371.3540366</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1730742372.0731368</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730742371.3540366.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730742372.0731368.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>1025.2</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>1028.4</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>3.200000000000045</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1730742372.333088</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1730742374.2058177</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730742372.333088.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730742374.2058177.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>1026</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>1028.8</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>2.799999999999955</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1730742374.3429782</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1730742376.2031472</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730742374.3429782.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730742376.2031472.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>1027</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>1024.4</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-2.599999999999909</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1730742376.6239176</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1730742382.9994957</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730742376.6239176.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730742382.9994957.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>1026.4</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>1025.4</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-1</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1730742383.0154521</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1730742383.0154521.png</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1730742383.0154521.png</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>1025.4</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1024.2</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.200000000000045</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1730742384.7398643</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1730742386.9943113</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/CNY1730742384.7398643.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/CNY1730742386.9943113.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>11.906</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>11.927</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-0.02099999999999902</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1730742387.0092716</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1730742387.5882072</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/CNY1730742387.0092716.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/CNY1730742387.5882072.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>11.927</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>11.941</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.01400000000000112</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1730742389.1477418</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1730742390.0891283</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/CNY1730742389.1477418.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/CNY1730742390.0891283.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>11.954</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>11.949</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-0.005000000000000782</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1730742391.259982</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1730742394.7556636</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/CNY1730742391.259982.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/CNY1730742394.7556636.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>11.947</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>11.955</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.008000000000000895</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1730742397.0390081</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1730742397.0390081.png</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
+          <t>./test_images/CNY1730742397.0390081.png</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>11.972</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>11.969</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.003000000000000114</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1730742398.0240324</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1730742399.3170958</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730742398.0240324.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730742399.3170958.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>124.84</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>124.96</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.1199999999999903</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1730742399.8874896</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1730742400.8217046</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730742399.8874896.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730742400.8217046.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>124.96</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>124.82</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-0.1400000000000006</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1730742401.021877</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1730742402.4456298</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730742401.021877.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730742402.4456298.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>124.66</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>125.06</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.4000000000000057</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1730742402.4615872</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1730742404.0229993</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730742402.4615872.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730742404.0229993.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>125.06</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>124.28</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.7800000000000011</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.62</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1730742404.0389798</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1730742406.501067</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730742404.0389798.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730742406.501067.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>124.28</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>123.7</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.5799999999999983</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.47</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1730742406.5170243</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1730742407.0038793</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730742406.5170243.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730742407.0038793.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>123.7</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>123.54</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.1599999999999966</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1730742407.565378</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1730742409.8182404</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730742407.565378.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730742409.8182404.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>123.84</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>123.7</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.1400000000000006</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1730742415.749244</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1730742416.7781577</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730742415.749244.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730742416.7781577.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>161.58</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>162.04</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.4599999999999795</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1730742418.171409</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1730742419.099847</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730742418.171409.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730742419.099847.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>162.12</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>162.02</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-0.09999999999999432</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1730742420.0162182</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1730742420.7250462</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730742420.0162182.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730742420.7250462.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>16200</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>160.88</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-16039.12</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-99.00999999999999</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1730742422.4743743</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1730742425.8310637</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730742422.4743743.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730742425.8310637.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>160.78</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>161.54</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>-0.7599999999999909</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.47</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1730742426.5057366</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1730742428.1800127</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730742426.5057366.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730742428.1800127.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>49.565</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>49.44</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>-0.125</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1730742429.0739298</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1730742430.5160758</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730742429.0739298.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730742430.5160758.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>49.63</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>49.65</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.01999999999999602</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1730742431.5620954</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1730742436.6382923</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730742431.5620954.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730742436.6382923.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>49.605</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>49.13</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-0.4749999999999943</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.96</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1730742436.654259</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1730742438.534552</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730742436.654259.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730742438.534552.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>49.13</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>49.31</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>-0.1799999999999997</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.37</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1730742443.881809</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1730742443.9766893</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730742443.881809.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730742443.9766893.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>1397.6</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>1399.4</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>1.800000000000182</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1730742444.2057927</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1730742444.5397494</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730742444.2057927.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730742444.5397494.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>1397</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>1402.8</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>5.799999999999955</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1730742446.142751</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1730742447.6439755</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730742446.142751.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730742447.6439755.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>1401.8</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>1395.8</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>-6</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.43</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1730742448.5791147</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1730742448.5791147.png</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+          <t>./test_images/CHMF1730742448.5791147.png</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>1389.2</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1390.4</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1.200000000000045</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1730742454.9333262</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1730742456.399088</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730742454.9333262.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730742456.399088.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>61.45</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>61.59</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.1400000000000006</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1730742457.0537753</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1730742458.2578206</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730742457.0537753.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730742458.2578206.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>61.54</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>61.49</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>-0.04999999999999716</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1730742461.5384502</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1730742465.0618424</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730742461.5384502.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730742465.0618424.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>60.74</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>60.87</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.1299999999999955</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1730742465.077799</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1730742466.6909566</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730742465.077799.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730742466.6909566.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>60.87</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>60.75</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.1199999999999974</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1730742469.4904754</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1730742470.318041</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730742469.4904754.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730742470.318041.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>98.51000000000001</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>98.43000000000001</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>-0.07999999999999829</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1730742471.8964915</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1730742473.237281</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730742471.8964915.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730742473.237281.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>98.22</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>98.47</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N74" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -4013,1533 +4699,1833 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1730742475.9239516</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1730742476.5289192</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730742475.9239516.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730742476.5289192.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>97.95999999999999</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>98.18000000000001</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.2200000000000131</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1730742476.5448484</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1730742477.0104926</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730742476.5448484.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730742477.0104926.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>98.18000000000001</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>98.03</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>0.1500000000000057</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1730742479.3800027</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1730742480.5661852</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730742479.3800027.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730742480.5661852.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>97.73</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>97.70999999999999</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>0.02000000000001023</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1730742483.4353316</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1730742483.4353316.png</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+          <t>./test_images/VTBR1730742483.4353316.png</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>97.81</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>97.66</v>
+      </c>
+      <c r="M78" t="n">
+        <v>-0.1500000000000057</v>
+      </c>
+      <c r="N78" t="n">
+        <v>-0.15</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1730742484.2098136</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1730742487.0951707</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/SELG1730742484.2098136.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/SELG1730742487.0951707.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>56.46</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>55.91</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.5500000000000043</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.97</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1730742487.1101282</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1730742488.2129517</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/SELG1730742487.1101282.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/SELG1730742488.2129517.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>55.91</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>56.07</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>0.1600000000000037</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1730742488.2289407</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1730742489.8791006</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/SELG1730742488.2289407.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/SELG1730742489.8791006.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>56.07</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>55.88</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>0.1899999999999977</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1730742497.126321</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1730742497.985835</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730742497.126321.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730742497.985835.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>148.78</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>150.2</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>1.419999999999987</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.95</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1730742500.08717</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1730742500.4642017</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730742500.08717.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730742500.4642017.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>153.9</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>15440</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>15286.1</v>
+      </c>
+      <c r="N83" t="n">
+        <v>9932.49</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1730742500.8286793</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1730742501.6282387</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730742500.8286793.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730742501.6282387.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>153.58</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>153.9</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>0.3199999999999932</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1730742503.1970217</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1730742504.3368578</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730742503.1970217.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730742504.3368578.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>155.74</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>153.8</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>-1.939999999999998</v>
+      </c>
+      <c r="N85" t="n">
+        <v>-1.25</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1730742506.5694854</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1730742508.1448648</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730742506.5694854.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730742508.1448648.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>153.22</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>154.32</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>1.099999999999994</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.72</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1730742508.1608217</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1730742510.1548984</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730742508.1608217.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730742510.1548984.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>154.32</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>153.3</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>1.019999999999982</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.66</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1730742512.9755468</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1730742513.8699975</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730742512.9755468.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730742513.8699975.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>20.42</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>20.413</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>-0.00700000000000145</v>
+      </c>
+      <c r="N88" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1730742514.083778</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1730742514.4478927</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730742514.083778.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730742514.4478927.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>20.401</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>20.462</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>0.06099999999999994</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1730742515.6826487</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1730742520.905381</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730742515.6826487.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730742520.905381.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>20.553</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>20.314</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>-0.2390000000000008</v>
+      </c>
+      <c r="N90" t="n">
+        <v>-1.16</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1730742520.921348</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1730742523.873131</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730742520.921348.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730742523.873131.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>20.314</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>20.321</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>-0.00700000000000145</v>
+      </c>
+      <c r="N91" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1730742527.4758654</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1730742529.0125673</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730742527.4758654.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730742529.0125673.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>678.95</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>679.45</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1730742529.9775736</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1730742531.2995784</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730742529.9775736.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730742531.2995784.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>679.2</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>680.15</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>0.9499999999999318</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1730742532.7455087</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1730742535.058961</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730742532.7455087.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730742535.058961.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>676.8</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>678.45</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>1.650000000000091</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1730742535.0758054</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1730742535.1795568</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730742535.0758054.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730742535.1795568.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>678.45</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>678.95</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>-0.5</v>
+      </c>
+      <c r="N95" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1730742536.6712804</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1730742538.0189328</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730742536.6712804.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730742538.0189328.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>677.3</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>676.85</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>0.4499999999999318</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1730742539.7801967</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1730742541.0641665</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/MTLR1730742539.7801967.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/MTLR1730742541.0641665.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>155.16</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>157.78</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>2.620000000000005</v>
+      </c>
+      <c r="N97" t="n">
+        <v>1.69</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1730742541.08179</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1730742545.8900225</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/MTLR1730742541.08179.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/MTLR1730742545.8900225.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>157.78</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>156.13</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>1.650000000000006</v>
+      </c>
+      <c r="N98" t="n">
+        <v>1.05</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1730742545.906977</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1730742545.906977.png</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+          <t>./test_images/MTLR1730742545.906977.png</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>156.13</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>154.54</v>
+      </c>
+      <c r="M99" t="n">
+        <v>-1.590000000000003</v>
+      </c>
+      <c r="N99" t="n">
+        <v>-1.02</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>1730742554.8196938</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>1730742555.305399</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>./test_images/FEES1730742554.8196938.png</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>./test_images/FEES1730742555.305399.png</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
         <v>0.09712000000000001</v>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>0.09806000000000001</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>0.0009399999999999964</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.97</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>1730742555.3218617</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>1730742565.0897846</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>./test_images/FEES1730742555.3218617.png</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>./test_images/FEES1730742565.0897846.png</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
         <v>0.09806000000000001</v>
       </c>
-      <c r="J101" t="n">
+      <c r="L101" t="n">
         <v>0.09724000000000001</v>
       </c>
-      <c r="K101" t="n">
+      <c r="M101" t="n">
         <v>0.0008200000000000013</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.84</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>1730742566.004176</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>1730742567.2801805</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>./test_images/MXI1730742566.004176.png</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>./test_images/MXI1730742567.2801805.png</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
         <v>2933.1</v>
       </c>
-      <c r="J102" t="n">
+      <c r="L102" t="n">
         <v>2941</v>
       </c>
-      <c r="K102" t="n">
+      <c r="M102" t="n">
         <v>7.900000000000091</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>1730742568.6477404</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>1730742569.0433674</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>./test_images/MXI1730742568.6477404.png</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>./test_images/MXI1730742569.0433674.png</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I103" t="n">
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
         <v>2941.85</v>
       </c>
-      <c r="J103" t="n">
+      <c r="L103" t="n">
         <v>2945.2</v>
       </c>
-      <c r="K103" t="n">
+      <c r="M103" t="n">
         <v>3.349999999999909</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="n">
+        <v>102</v>
+      </c>
+      <c r="D104" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>1730742569.2229178</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>1730742570.104407</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>./test_images/MXI1730742569.2229178.png</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>./test_images/MXI1730742570.104407.png</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I104" t="n">
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
         <v>2941.05</v>
       </c>
-      <c r="J104" t="n">
+      <c r="L104" t="n">
         <v>2948</v>
       </c>
-      <c r="K104" t="n">
+      <c r="M104" t="n">
         <v>6.949999999999818</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="n">
+        <v>103</v>
+      </c>
+      <c r="D105" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>1730742570.3657124</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>1730742570.535114</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>./test_images/MXI1730742570.3657124.png</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>./test_images/MXI1730742570.535114.png</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I105" t="n">
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
         <v>2948.25</v>
       </c>
-      <c r="J105" t="n">
+      <c r="L105" t="n">
         <v>2949.55</v>
       </c>
-      <c r="K105" t="n">
+      <c r="M105" t="n">
         <v>1.300000000000182</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" t="n">
+        <v>104</v>
+      </c>
+      <c r="C106" t="n">
+        <v>104</v>
+      </c>
+      <c r="D106" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>1730742570.979833</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1730742570.979833.png</t>
         </is>
       </c>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I106" t="n">
+          <t>./test_images/MXI1730742570.979833.png</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
         <v>2949.95</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>2941.35</v>
+      </c>
+      <c r="M106" t="n">
+        <v>-8.599999999999909</v>
+      </c>
+      <c r="N106" t="n">
+        <v>-0.29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5552,7 +6538,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5576,6 +6562,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -5589,6 +6590,15 @@
       <c r="C2" t="n">
         <v>9</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.01222222222221742</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.08000000000000004</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -5602,6 +6612,15 @@
       <c r="C3" t="n">
         <v>9</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.09555555555556339</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -5615,213 +6634,366 @@
       <c r="C4" t="n">
         <v>7</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.1257142857142851</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>SOFL</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15288.02</v>
+        <v>6.600000000000136</v>
       </c>
       <c r="C5" t="n">
         <v>6</v>
       </c>
+      <c r="D5" t="n">
+        <v>1.100000000000023</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>VTBR</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>0.410000000000025</v>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.06833333333333751</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>MOEX</t>
+          <t>SOFL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6599999999999966</v>
+        <v>15288.02</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
+      <c r="D7" t="n">
+        <v>2548.003333333334</v>
+      </c>
+      <c r="E7" t="n">
+        <v>9933.780000000001</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1655.63</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>VTBR</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5600000000000307</v>
+        <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.166666666666667</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.2000000000000001</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>SIBN</t>
+          <t>MOEX</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.049999999999955</v>
+        <v>0.6599999999999966</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1099999999999994</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.400000000000091</v>
+        <v>10.90000000000009</v>
       </c>
       <c r="C10" t="n">
         <v>5</v>
       </c>
+      <c r="D10" t="n">
+        <v>2.180000000000018</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AFKS</t>
+          <t>CNY</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1920000000000037</v>
+        <v>-0.0009999999999976694</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.0001999999999995339</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>SIBN</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-16039.52</v>
+        <v>3.049999999999955</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6099999999999909</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.5</v>
+        <v>-1.150000000000091</v>
       </c>
       <c r="C13" t="n">
         <v>4</v>
       </c>
+      <c r="D13" t="n">
+        <v>-0.2875000000000227</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.2300000000000001</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.06</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>AFKS</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3399999999999963</v>
+        <v>-0.1920000000000037</v>
       </c>
       <c r="C14" t="n">
         <v>4</v>
       </c>
+      <c r="D14" t="n">
+        <v>-0.04800000000000093</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.9199999999999999</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.23</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.759999999999998</v>
+        <v>-16039.52</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
       </c>
+      <c r="D15" t="n">
+        <v>-4009.88</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-99.25999999999999</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-24.82</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.003999999999997783</v>
+        <v>0.3399999999999963</v>
       </c>
       <c r="C16" t="n">
         <v>4</v>
       </c>
+      <c r="D16" t="n">
+        <v>0.08499999999999908</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.500000000000057</v>
+        <v>-0.759999999999998</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.1899999999999995</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-1.54</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>SELG</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9000000000000057</v>
+        <v>2.800000000000182</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.7000000000000455</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>MTLR</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.600000000000136</v>
+        <v>2.680000000000007</v>
       </c>
       <c r="C19" t="n">
         <v>3</v>
       </c>
+      <c r="D19" t="n">
+        <v>0.8933333333333356</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.57</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>MTLR</t>
+          <t>SELG</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.27000000000001</v>
+        <v>0.9000000000000057</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.3000000000000019</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.53</v>
       </c>
     </row>
     <row r="21">
@@ -5836,6 +7008,15 @@
       <c r="C21" t="n">
         <v>2</v>
       </c>
+      <c r="D21" t="n">
+        <v>-0.3149999999999693</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.12</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -5849,6 +7030,15 @@
       <c r="C22" t="n">
         <v>2</v>
       </c>
+      <c r="D22" t="n">
+        <v>0.0008799999999999988</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -5862,6 +7052,11 @@
       <c r="C23" t="n">
         <v>0</v>
       </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
